--- a/res/benchmarks.xlsx
+++ b/res/benchmarks.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="363235653CEFB026356243E929449944C10C528E" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -78,11 +79,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,15 +417,23 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -466,7 +475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,9 +507,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,6 +559,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -707,14 +752,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
@@ -726,7 +771,7 @@
     <col min="10" max="10" width="13" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
@@ -740,8 +785,8 @@
       <c r="I1" s="29"/>
       <c r="J1" s="30"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="18" t="s">
         <v>0</v>
@@ -768,7 +813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -796,7 +841,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -824,7 +869,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
@@ -852,7 +897,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
@@ -880,7 +925,7 @@
         <v>-99.999999999999986</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
@@ -908,7 +953,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
@@ -936,7 +981,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>10</v>
       </c>
@@ -964,7 +1009,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>14</v>
       </c>
@@ -973,7 +1018,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I13" s="2" t="s">
         <v>15</v>
       </c>
@@ -982,7 +1027,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I14" s="2" t="s">
         <v>16</v>
       </c>
@@ -991,7 +1036,7 @@
         <v>-99.999999999999986</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -1010,12 +1055,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1023,12 +1068,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/res/benchmarks.xlsx
+++ b/res/benchmarks.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="363235653CEFB026356243E929449944C10C528E" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="363235653CEFB026356243E929449944C10C528E" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -756,7 +756,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/res/benchmarks.xlsx
+++ b/res/benchmarks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="363235653CEFB026356243E929449944C10C528E" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="363235653CEFB026356243E929449944C10C528E" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{24C09E9C-E816-496C-861D-D22B94736A14}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -756,7 +756,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,10 +835,12 @@
       <c r="G4" s="9">
         <v>157.03273300000001</v>
       </c>
-      <c r="I4" s="23"/>
+      <c r="I4" s="23">
+        <v>180.97507999999999</v>
+      </c>
       <c r="J4" s="24">
         <f>100*(I4-G4)/G4</f>
-        <v>-100</v>
+        <v>15.246723751537827</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -975,10 +977,12 @@
       <c r="G9" s="10">
         <v>3.044578</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="22">
+        <v>4.9803796</v>
+      </c>
       <c r="J9" s="3">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>63.5819348362893</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1024,7 +1028,7 @@
       </c>
       <c r="J13" s="4">
         <f>AVERAGE(J4:J10)</f>
-        <v>-100</v>
+        <v>-60.167334487453267</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1033,7 +1037,7 @@
       </c>
       <c r="J14" s="4">
         <f>MAX(J4:J10)</f>
-        <v>-99.999999999999986</v>
+        <v>63.5819348362893</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">

--- a/res/benchmarks.xlsx
+++ b/res/benchmarks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="363235653CEFB026356243E929449944C10C528E" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{24C09E9C-E816-496C-861D-D22B94736A14}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="363235653CEFB026356243E929449944C10C528E" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{5F106A41-7E78-43C5-9963-000ECF3C3B07}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -756,7 +756,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,11 +836,11 @@
         <v>157.03273300000001</v>
       </c>
       <c r="I4" s="23">
-        <v>180.97507999999999</v>
+        <v>180.97476</v>
       </c>
       <c r="J4" s="24">
         <f>100*(I4-G4)/G4</f>
-        <v>15.246723751537827</v>
+        <v>15.246519972367798</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -865,10 +865,12 @@
       <c r="G5" s="10">
         <v>34.708820000000003</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="22">
+        <v>46.11374</v>
+      </c>
       <c r="J5" s="3">
         <f t="shared" ref="J5:J10" si="0">100*(I5-G5)/G5</f>
-        <v>-100</v>
+        <v>32.858852591358612</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -893,10 +895,12 @@
       <c r="G6" s="10">
         <v>32.626666999999998</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="22">
+        <v>47.678894</v>
+      </c>
       <c r="J6" s="3">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>46.13473696225239</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -921,10 +925,12 @@
       <c r="G7" s="10">
         <v>7.7172020000000003</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="22">
+        <v>10.917183</v>
+      </c>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
-        <v>-99.999999999999986</v>
+        <v>41.46555966786925</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -949,10 +955,12 @@
       <c r="G8" s="10">
         <v>12.901103000000001</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="22">
+        <v>18.962624000000002</v>
+      </c>
       <c r="J8" s="3">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>46.984517525361987</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -978,11 +986,11 @@
         <v>3.044578</v>
       </c>
       <c r="I9" s="22">
-        <v>4.9803796</v>
+        <v>4.4145764999999999</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="0"/>
-        <v>63.5819348362893</v>
+        <v>44.997976731093758</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1007,10 +1015,12 @@
       <c r="G10" s="12">
         <v>10.050300999999999</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="22">
+        <v>14.834254</v>
+      </c>
       <c r="J10" s="3">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>47.600096753321125</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1019,7 +1029,7 @@
       </c>
       <c r="J12" s="4">
         <f>MIN(J4:J10)</f>
-        <v>-100</v>
+        <v>15.246519972367798</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1028,7 +1038,7 @@
       </c>
       <c r="J13" s="4">
         <f>AVERAGE(J4:J10)</f>
-        <v>-60.167334487453267</v>
+        <v>39.32689431480356</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1037,7 +1047,7 @@
       </c>
       <c r="J14" s="4">
         <f>MAX(J4:J10)</f>
-        <v>63.5819348362893</v>
+        <v>47.600096753321125</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1054,7 +1064,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
